--- a/ai proje2 experimental.xlsx
+++ b/ai proje2 experimental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyure\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyure\Documents\GitHub\AI_DL_Proje2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Ratings</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>Total grade out of 100:</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Num. of Recommendations</t>
+  </si>
+  <si>
+    <t>Avg. Correlation</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -378,12 +399,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -437,6 +473,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -718,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="M3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,16 +771,18 @@
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="83.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
         <v>16</v>
@@ -756,7 +797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -773,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -790,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -807,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -824,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -841,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>6</v>
       </c>
@@ -878,8 +919,20 @@
       <c r="O8" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>7</v>
       </c>
@@ -914,8 +967,20 @@
       <c r="O9" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="26">
+        <v>6</v>
+      </c>
+      <c r="T9" s="26">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -952,8 +1017,20 @@
       <c r="O10" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="27">
+        <v>4</v>
+      </c>
+      <c r="T10" s="27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -989,7 +1066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>37</v>
       </c>
@@ -1005,10 +1082,10 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I14" s="1"/>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
